--- a/Circuit/BOM/BOM.xlsx
+++ b/Circuit/BOM/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">PCB</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP32 </t>
+    <t xml:space="preserve">Raspberry Pi Pico W</t>
   </si>
   <si>
     <t xml:space="preserve">Main MCU</t>
@@ -55,16 +55,16 @@
     <t xml:space="preserve">LD33v</t>
   </si>
   <si>
-    <t xml:space="preserve">for esp32</t>
+    <t xml:space="preserve">for pico</t>
   </si>
   <si>
     <t xml:space="preserve">Pin Headers 20Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">esp32 mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Supply 12V 10A</t>
+    <t xml:space="preserve">pico mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor 330uF</t>
   </si>
   <si>
     <t xml:space="preserve">Power wires</t>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Same Day Delivery Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second delivery fee?</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;&gt;</t>
@@ -473,13 +476,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.05"/>
@@ -541,14 +544,14 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="n">
         <f aca="false">C3*D3</f>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>9</v>
@@ -606,16 +609,11 @@
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>370</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <f aca="false">C6*D6</f>
-        <v>370</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
@@ -672,11 +670,11 @@
         <v>45</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
         <f aca="false">C9*D9</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>19</v>
@@ -1249,8 +1247,12 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1258,48 +1260,58 @@
       <c r="G38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13" t="n">
-        <f aca="false">C39*D39</f>
-        <v>3000</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D40" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="n">
+        <f aca="false">C40*D40</f>
+        <v>3000</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3" t="n">
-        <f aca="false">SUM(E2:E40)</f>
-        <v>5054.25</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3" t="n">
+        <f aca="false">SUM(E2:E41)</f>
+        <v>5079.25</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
